--- a/src/main/webapp/WEB-INF/team2_Work.xlsx
+++ b/src/main/webapp/WEB-INF/team2_Work.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="19200" windowHeight="11865"/>
+    <workbookView xWindow="0" yWindow="2640" windowWidth="20490" windowHeight="8295"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -755,8 +756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1050,7 +1051,7 @@
       </c>
     </row>
     <row r="38" spans="3:7">
-      <c r="F38" t="s">
+      <c r="F38" s="1" t="s">
         <v>36</v>
       </c>
       <c r="G38" t="s">
@@ -1058,7 +1059,7 @@
       </c>
     </row>
     <row r="39" spans="3:7">
-      <c r="F39" t="s">
+      <c r="F39" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G39" t="s">
@@ -1069,12 +1070,12 @@
       <c r="F40" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G40" s="3" t="s">
+      <c r="G40" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="41" spans="3:7">
-      <c r="G41" t="s">
+      <c r="G41" s="1" t="s">
         <v>43</v>
       </c>
     </row>

--- a/src/main/webapp/WEB-INF/team2_Work.xlsx
+++ b/src/main/webapp/WEB-INF/team2_Work.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2640" windowWidth="20490" windowHeight="8295"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="19200" windowHeight="11865"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="90">
   <si>
     <t>member</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -124,10 +123,6 @@
   </si>
   <si>
     <t>주소검색</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>memberlist 검색가능</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -756,8 +751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -770,19 +765,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" t="s">
         <v>89</v>
-      </c>
-      <c r="C1" t="s">
-        <v>90</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -790,7 +785,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -798,7 +793,7 @@
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -806,7 +801,7 @@
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -814,7 +809,7 @@
         <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -822,7 +817,7 @@
         <v>6</v>
       </c>
       <c r="F6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -830,29 +825,29 @@
         <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="C9" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="G9" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="C10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D10" t="s">
         <v>0</v>
@@ -865,7 +860,7 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="G11" t="s">
+      <c r="G11" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -873,15 +868,15 @@
       <c r="F12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="F13" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -895,7 +890,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="G15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -905,7 +900,7 @@
     </row>
     <row r="17" spans="3:7">
       <c r="G17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="3:7">
@@ -931,7 +926,7 @@
     </row>
     <row r="21" spans="3:7">
       <c r="C21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D21" t="s">
         <v>1</v>
@@ -940,84 +935,79 @@
         <v>21</v>
       </c>
       <c r="G21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="3:7">
-      <c r="F23" t="s">
+      <c r="F23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="24" spans="3:7">
-      <c r="G24" t="s">
+      <c r="G24" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="25" spans="3:7">
-      <c r="F25" t="s">
+      <c r="F25" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="3:7">
-      <c r="F26" t="s">
+      <c r="F26" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="27" spans="3:7">
-      <c r="F27" t="s">
+      <c r="F27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="1" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="3:7">
-      <c r="G28" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="30" spans="3:7">
       <c r="C30" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D30" t="s">
         <v>2</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="3:7">
       <c r="F31" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="3:7">
       <c r="F32" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="3:7">
       <c r="F33" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>17</v>
@@ -1030,45 +1020,45 @@
     </row>
     <row r="35" spans="3:7">
       <c r="F35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="3:7">
       <c r="C37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D37" t="s">
         <v>3</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="3:7">
       <c r="F38" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="3:7">
       <c r="F39" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="3:7">
       <c r="F40" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>17</v>
@@ -1076,55 +1066,55 @@
     </row>
     <row r="41" spans="3:7">
       <c r="G41" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="3:7">
       <c r="F42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="3:7">
       <c r="C44" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D44" t="s">
         <v>5</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="3:7">
       <c r="F45" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46" spans="3:7">
       <c r="F46" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G46" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="47" spans="3:7">
       <c r="G47" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48" spans="3:7">
       <c r="F48" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>17</v>
@@ -1132,80 +1122,80 @@
     </row>
     <row r="49" spans="3:7">
       <c r="G49" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="50" spans="3:7">
-      <c r="F50" t="s">
-        <v>50</v>
+      <c r="F50" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="G50" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51" spans="3:7">
       <c r="C51" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D51" t="s">
         <v>6</v>
       </c>
-      <c r="F51" t="s">
-        <v>57</v>
+      <c r="F51" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="G51" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="3:7">
       <c r="F52" t="s">
+        <v>57</v>
+      </c>
+      <c r="G52" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53" spans="3:7">
+      <c r="F53" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G52" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="53" spans="3:7">
-      <c r="F53" t="s">
-        <v>59</v>
-      </c>
-      <c r="G53" t="s">
-        <v>62</v>
+      <c r="G53" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="55" spans="3:7">
       <c r="C55" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D55" t="s">
         <v>4</v>
       </c>
-      <c r="F55" t="s">
-        <v>63</v>
+      <c r="F55" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="G55" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="57" spans="3:7">
       <c r="F57" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G57" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="3:7">
       <c r="F59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G59" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="60" spans="3:7">
       <c r="G60" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="61" spans="3:7">
@@ -1215,15 +1205,15 @@
     </row>
     <row r="62" spans="3:7">
       <c r="G62" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="64" spans="3:7">
       <c r="F64" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G64" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/webapp/WEB-INF/team2_Work.xlsx
+++ b/src/main/webapp/WEB-INF/team2_Work.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="19200" windowHeight="11865"/>
+    <workbookView xWindow="0" yWindow="2700" windowWidth="18840" windowHeight="5385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -751,8 +752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1178,7 +1179,7 @@
       </c>
     </row>
     <row r="57" spans="3:7">
-      <c r="F57" t="s">
+      <c r="F57" s="1" t="s">
         <v>63</v>
       </c>
       <c r="G57" t="s">
@@ -1186,7 +1187,7 @@
       </c>
     </row>
     <row r="59" spans="3:7">
-      <c r="F59" t="s">
+      <c r="F59" s="1" t="s">
         <v>64</v>
       </c>
       <c r="G59" t="s">
@@ -1199,17 +1200,17 @@
       </c>
     </row>
     <row r="61" spans="3:7">
-      <c r="G61" t="s">
+      <c r="G61" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="62" spans="3:7">
-      <c r="G62" t="s">
+      <c r="G62" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="64" spans="3:7">
-      <c r="F64" t="s">
+      <c r="F64" s="1" t="s">
         <v>67</v>
       </c>
       <c r="G64" t="s">
